--- a/Flucona_stock_solution_conc.xlsx
+++ b/Flucona_stock_solution_conc.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brycecorbett/Shedd_Aquarium/Projects/Flucanozole_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{96D88281-73F2-6843-84D4-A758AF376222}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F06386-842D-7F4D-B501-BC6A41C76FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6380" yWindow="3360" windowWidth="28040" windowHeight="17440" xr2:uid="{B710387B-6C83-A344-A5A6-D9CEDB9E96F6}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{B710387B-6C83-A344-A5A6-D9CEDB9E96F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>1000 mg/L stock solution</t>
   </si>
@@ -50,6 +50,12 @@
   </si>
   <si>
     <t xml:space="preserve">500 mg/L stock solution </t>
+  </si>
+  <si>
+    <t xml:space="preserve">3 per treatment,  total needed 250 mL </t>
+  </si>
+  <si>
+    <t>3 per treatment, total needed 150mL</t>
   </si>
 </sst>
 </file>
@@ -102,9 +108,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -419,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{745C3164-7D7B-4D4E-A7A1-3D05A007F34E}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -575,6 +584,14 @@
         <v>1.5</v>
       </c>
     </row>
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="D8" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/Flucona_stock_solution_conc.xlsx
+++ b/Flucona_stock_solution_conc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/brycecorbett/Shedd_Aquarium/Projects/Flucanozole_23/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73F06386-842D-7F4D-B501-BC6A41C76FD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{105EC3AD-66C4-1649-A99E-A933F233D765}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{B710387B-6C83-A344-A5A6-D9CEDB9E96F6}"/>
   </bookViews>
@@ -431,7 +431,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
